--- a/elementos_de_integracao.xlsx
+++ b/elementos_de_integracao.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d740686fa87cfa/Documentos/Profissão/integracao_trello_asana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_AD4D361C20488DEA4E38A0862CDA57745ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE14EAEC-0145-456C-9E79-A1C97A648EED}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_AD4D361C20488DEA4E38A0862CDA57745ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B8944ED-06BD-40CD-AF9B-4E44ECA27C77}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="0" windowWidth="20850" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="16845" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Integração" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Trello</t>
   </si>
@@ -160,6 +160,21 @@
   <si>
     <t>POST https://api.trello.com/1/labels?name={name}&amp;color={color_name}&amp;idBoard={idBoard}&amp;key=APIKey&amp;token=APIToken
 POST https://api.trello.com/1/cards/{id}/idLabels?key=APIKey&amp;token=APIToken</t>
+  </si>
+  <si>
+    <t>Regras de Conversão</t>
+  </si>
+  <si>
+    <t>O nome deve ser convertido diretamente, respeitando o limite de caracteres do Trello (16384 caracteres)</t>
+  </si>
+  <si>
+    <t>O nome deve ser convertido diretamente, o campo não pode estar vazio</t>
+  </si>
+  <si>
+    <t>O nome deve ser convertido diretamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O nome deve ser convertido diretamente. As cores não são totalmente compatíveis, a opção em comum é deixar o campo nulo </t>
   </si>
 </sst>
 </file>
@@ -227,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -240,9 +255,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,10 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,9 +558,10 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="48.85546875" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -563,9 +577,12 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="189" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" ht="189" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -580,9 +597,12 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -597,9 +617,12 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -614,9 +637,12 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="330.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -630,6 +656,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/elementos_de_integracao.xlsx
+++ b/elementos_de_integracao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d740686fa87cfa/Documentos/Profissão/integracao_trello_asana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_AD4D361C20488DEA4E38A0862CDA57745ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B8944ED-06BD-40CD-AF9B-4E44ECA27C77}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="11_AD4D361C20488DEA4E38A0862CDA57745ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1636A037-D9E0-49D5-A6CA-5D35C98C3A0F}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16845" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21870" yWindow="735" windowWidth="20850" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Integração" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Trello</t>
   </si>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>Criar List em um Board</t>
-  </si>
-  <si>
-    <t>POST https://api.trello.com/1/boards/{id}/lists?name={name}&amp;key=APIKey&amp;token=APIToken \
---header 'Accept: application/json'</t>
   </si>
   <si>
     <t>Criar Section em um Project</t>
@@ -76,6 +72,30 @@
   </si>
   <si>
     <t>Criar Task em uma Section</t>
+  </si>
+  <si>
+    <t>Cria um Cartão no Trello e uma Tarefa na Asana com o mesmo nome</t>
+  </si>
+  <si>
+    <t>Cria Label em um Card</t>
+  </si>
+  <si>
+    <t>Criar Tag em uma Task</t>
+  </si>
+  <si>
+    <t>Rótulos dos cartões no Trello serão as Etiquetas das tarefas no Asana</t>
+  </si>
+  <si>
+    <t>Regras de Conversão</t>
+  </si>
+  <si>
+    <t>Adicionar Member a um Card</t>
+  </si>
+  <si>
+    <t>Adicionar Followers a uma Task</t>
+  </si>
+  <si>
+    <t>O mebro de um cartão no Trello será um mesmo seguidor de uma tarefa na Asana</t>
   </si>
   <si>
     <t>POST https://app.asana.com/api/1.0/projects \
@@ -85,7 +105,22 @@
      --data '
 {
   "data": {
-    "name": "name"
+    "name": "{name}"
+  }
+}
+'</t>
+  </si>
+  <si>
+    <t>POST https://app.asana.com/api/1.0/tasks/{task_gid}/addFollowers \
+--header 'accept: application/json' \
+--header 'authorization: Bearer {your_personal_access_token}' \
+--header 'content-type: application/json' \
+--data '
+{
+  "data": {
+    "followers": [
+      "{FollowersID}"
+    ]
   }
 }
 '</t>
@@ -98,7 +133,7 @@
      --data '
 {
   "data": {
-    "name": "name"
+    "name": "{name}"
   }
 }
 '</t>
@@ -106,38 +141,34 @@
   <si>
     <t>POST https://app.asana.com/api/1.0/tasks \
 --header 'accept: application/json' \
-     --header 'authorization: Bearer {your_personal_access_token}' \
-     --header 'content-type: application/json' \
-     --data '
+--header 'authorization: Bearer {your_personal_access_token}' \
+--header 'content-type: application/json' \
+--data '
 {
   "data": {
-    "name": "name"
+    "name": "{name}"
   }
 }
 '
 POST https://app.asana.com/api/1.0/sections/section_gid/addTask \
 --header 'accept: application/json' \
-     --header 'authorization: Bearer {your_personal_access_token}' \
-     --header 'content-type: application/json' \
-     --data '
+--header 'authorization: Bearer {your_personal_access_token}' \
+--header 'content-type: application/json' \
+--data '
 {
   "data": {
-    "task": "idTask"
+    "task": "{idTask}"
   }
 }
 '</t>
   </si>
   <si>
-    <t>Cria um Cartão no Trello e uma Tarefa na Asana com o mesmo nome</t>
-  </si>
-  <si>
-    <t>Cria Label em um Card</t>
-  </si>
-  <si>
-    <t>Criar Tag em uma Task</t>
-  </si>
-  <si>
-    <t>Rótulos dos cartões no Trello serão as Etiquetas das tarefas no Asana</t>
+    <t>POST https://api.trello.com/1/boards/{idBoard}/lists?name={name}&amp;key=APIKey&amp;token=APIToken \
+--header 'Accept: application/json'</t>
+  </si>
+  <si>
+    <t>POST https://api.trello.com/1/labels?name={name}&amp;color={color_name}&amp;idBoard={idBoard}&amp;key=APIKey&amp;token=APIToken
+POST https://api.trello.com/1/cards/{idCard}/idLabels?value={idLabel}key=APIKey&amp;token=APIToken</t>
   </si>
   <si>
     <t>POST https://app.asana.com/api/1.0/tags \
@@ -147,34 +178,44 @@
      --data '
 {
   "data": {
-    "name": "name",
-    "color": "color_name"
+    "name": "{name}",
+    "color": "{color_name}"
   }
 }
 '
-POST https://app.asana.com/api/1.0/tasks/task_gid/addTag \
+POST https://app.asana.com/api/1.0/tasks/{task_gid}/addTag \
 --header 'accept: application/json' \
 --header 'authorization: Bearer {your_personal_access_token}' \
---header 'content-type: application/json'</t>
-  </si>
-  <si>
-    <t>POST https://api.trello.com/1/labels?name={name}&amp;color={color_name}&amp;idBoard={idBoard}&amp;key=APIKey&amp;token=APIToken
-POST https://api.trello.com/1/cards/{id}/idLabels?key=APIKey&amp;token=APIToken</t>
-  </si>
-  <si>
-    <t>Regras de Conversão</t>
-  </si>
-  <si>
-    <t>O nome deve ser convertido diretamente, respeitando o limite de caracteres do Trello (16384 caracteres)</t>
-  </si>
-  <si>
-    <t>O nome deve ser convertido diretamente, o campo não pode estar vazio</t>
-  </si>
-  <si>
-    <t>O nome deve ser convertido diretamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O nome deve ser convertido diretamente. As cores não são totalmente compatíveis, a opção em comum é deixar o campo nulo </t>
+--header 'content-type: application/json'
+--data '
+{
+  "data": {
+    "tag": "{idTag}"
+  }
+}
+'</t>
+  </si>
+  <si>
+    <t>POST https://api.trello.com/1/cards/{idCard}/idMembers?key=APIKey&amp;token=APIToken&amp;value={MemberID}</t>
+  </si>
+  <si>
+    <t>O nome deve ser convertido diretamente. 
+Onde tiver {name}, {MemberID}, APIKey, APIToken, {idCard}, {your_personal_acess_token}, {task_gid}, {FollowersID}, deverá substituir pelo valor correspondente. O valor não precisa conter as {}, essa é uma forma de indicar que o valor em questão é uma variável a ser substituída.</t>
+  </si>
+  <si>
+    <t>O nome deve ser convertido diretamente. As cores não são totalmente compatíveis, a opção em comum é deixar o campo nulo.
+Onde tiver {name}, {color_name}, {idBoard}, APIKey, APIToken, {idCard}, {idLabel}, {your_personal_acess_token}, {task_gid}, {idTag}, deverá substituir pelo valor correspondente. O valor não precisa conter as {}, essa é uma forma de indicar que o valor em questão é uma variável a ser substituída.</t>
+  </si>
+  <si>
+    <t>O nome deve ser convertido diretamente. Onde tiver {name}, {idList}, APIKey, APIToken, {your_personal_acess_token}, {idTask}, deverá substituir pelo valor correspondente. O valor não precisa conter as {}, essa é uma forma de indicar que o valor em questão é uma variável a ser substituída.</t>
+  </si>
+  <si>
+    <t>O nome deve ser convertido diretamente, respeitando o limite de caracteres do Trello (16384 caracteres).
+Onde tiver (name), {your_personal_acess_token}, APIKey e API Token, substituir pelo respectivo valor. O valor não precisa conter as {}, essa é uma forma de indicar que o valor em questão é uma variável a ser substituída.</t>
+  </si>
+  <si>
+    <t>O nome deve ser convertido diretamente, o campo não pode estar vazio. Deve-se respeitar o limite de caracteres para o nome da lista no Trello que é 16384 caracteres.
+Onde tiver {name}, {idBoard}, APIKey, APIToken, {your_personal_acess_token}, deverá substituir pelo valor correspondente. O valor não precisa conter as {}, essa é uma forma de indicar que o valor em questão é uma variável a ser substituída.</t>
   </si>
 </sst>
 </file>
@@ -242,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -256,6 +297,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -279,6 +323,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="189" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -592,73 +640,93 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="378" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="330.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:6" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/elementos_de_integracao.xlsx
+++ b/elementos_de_integracao.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="175" documentId="11_AD4D361C20488DEA4E38A0862CDA57745ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1636A037-D9E0-49D5-A6CA-5D35C98C3A0F}"/>
   <bookViews>
-    <workbookView xWindow="21870" yWindow="735" windowWidth="20850" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Integração" sheetId="1" r:id="rId1"/>
@@ -595,21 +595,21 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="48.81640625" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="279" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -649,7 +649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="378" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="356.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -669,7 +669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -689,7 +689,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -709,7 +709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="279" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
